--- a/data/simulated_data/case2_mse_min.xlsx
+++ b/data/simulated_data/case2_mse_min.xlsx
@@ -486,42 +486,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>% Decrease relative to RP full</t>
+          <t>% Decrease relative to RP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>73.42</t>
+          <t xml:space="preserve"> 0.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96.50</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>66.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.04</t>
+          <t>58.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.38</t>
+          <t xml:space="preserve"> 7.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91.31</t>
+          <t>67.31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>99.81</t>
         </is>
       </c>
     </row>
